--- a/Project documents/elaboration-phase/20161006_klassediagram.xlsx
+++ b/Project documents/elaboration-phase/20161006_klassediagram.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="8970" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Class diagram" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,77 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
-  <si>
-    <t>Kandidaat klasse</t>
-  </si>
-  <si>
-    <t>Beslissing</t>
-  </si>
-  <si>
-    <t>Wordt klasse</t>
-  </si>
-  <si>
-    <t>moment</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>department</t>
   </si>
   <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>inteview</t>
-  </si>
-  <si>
-    <t>requirement</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
     <t>sales</t>
   </si>
   <si>
     <t>customer</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
     <t>quotation</t>
   </si>
   <si>
@@ -104,69 +44,18 @@
     <t>company</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>adress</t>
-  </si>
-  <si>
-    <t>housenumber</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>contactperson</t>
-  </si>
-  <si>
-    <t>initial</t>
-  </si>
-  <si>
-    <t>fax</t>
-  </si>
-  <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Invoicenumber</t>
-  </si>
-  <si>
     <t>offerstatus</t>
   </si>
   <si>
     <t>appointment</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>contactdate</t>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>salesprecentage</t>
-  </si>
-  <si>
-    <t>chief</t>
-  </si>
-  <si>
-    <t>interview</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
     <t>finance</t>
   </si>
   <si>
-    <t>information</t>
-  </si>
-  <si>
     <t>incvoice</t>
   </si>
   <si>
@@ -176,32 +65,77 @@
     <t>maintenance</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
-    <t>layout</t>
-  </si>
-  <si>
     <t>Barroc-IT</t>
   </si>
   <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>bill</t>
+    <t>Attribuut</t>
+  </si>
+  <si>
+    <t>Operatie</t>
+  </si>
+  <si>
+    <t>Departments will each get a different role in the application. One may be able to edit more data then the other</t>
+  </si>
+  <si>
+    <t>The sales role is one of the roles within the application</t>
+  </si>
+  <si>
+    <t>A customer is an object in the application. Custommers can have action projects or bills they need to pay</t>
+  </si>
+  <si>
+    <t>Quotations can be made in the application itself and can be assigned and send to customers.</t>
+  </si>
+  <si>
+    <t>The database is the storage system for this application. All the data can be found here</t>
+  </si>
+  <si>
+    <t>A customer has a company name attatched to it. This makes the customer unique towards the others</t>
+  </si>
+  <si>
+    <t>An appointment can be assigned to a customer. If the user of the application wants to see threw a history of appointments of a customer he can do so</t>
+  </si>
+  <si>
+    <t>The offerstatus is something for the customer to see if his offer is accpted or denied</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Class type</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>The conact date is a attribute at the appointments section. The user can see when the appointment took place here</t>
+  </si>
+  <si>
+    <t>The finance role is one of the roles within the application</t>
+  </si>
+  <si>
+    <t>Invoices can be made within the application itself and can be assigned to customers. After that the quotation can be send to a customer so he can pay to bill. After the payment, the invoice will be set to "paid"</t>
+  </si>
+  <si>
+    <t>The Development role is one of the roles within the application</t>
+  </si>
+  <si>
+    <t>Maintenance is a task the development department had. If the application they made needs support, they will provide it. The customer needs a maintenance contract to get access to this support</t>
+  </si>
+  <si>
+    <t>When a customer is registered and accepted, it can ask the development department to start a project. The project can be assigned to a customer and will get a project status which will show to current state of the project</t>
+  </si>
+  <si>
+    <t>Barroc-IT is the company that will use this application for better communication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +153,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -296,17 +236,6 @@
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -357,39 +286,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,445 +645,385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="3"/>
-    </row>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="14"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="14"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="3"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="14"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="3"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="3"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="14"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="6"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="6"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="6"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="6"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="6"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="6"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="6"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="6"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="6"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="6"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D35 D38 D40 D42:D43 D45 D49 D53:D55">
+      <formula1>"Redundant,Irrelevant,Vaag,Niet kwantificeerbaar,Attribuut,Operatie"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
